--- a/artfynd/A 26675-2023.xlsx
+++ b/artfynd/A 26675-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,6 +1257,127 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112182932</v>
+      </c>
+      <c r="B7" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Nylandet, Hls</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>527228.9315337478</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6908168.611324663</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Ljusdal</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Hälsingland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Ramsjö</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 26675-2023.xlsx
+++ b/artfynd/A 26675-2023.xlsx
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>527228.9315337478</v>
+        <v>527229</v>
       </c>
       <c r="R7" t="n">
-        <v>6908168.611324663</v>
+        <v>6908169</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1336,19 +1336,9 @@
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-07-06</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">

--- a/artfynd/A 26675-2023.xlsx
+++ b/artfynd/A 26675-2023.xlsx
@@ -1262,7 +1262,7 @@
         <v>112182932</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>

--- a/artfynd/A 26675-2023.xlsx
+++ b/artfynd/A 26675-2023.xlsx
@@ -1262,7 +1262,7 @@
         <v>112182932</v>
       </c>
       <c r="B7" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
